--- a/动态图表.xlsx
+++ b/动态图表.xlsx
@@ -26,7 +26,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="北京">OFFSET([1]Sheet1!$C$1,1,,[1]Sheet1!$D$2,1)</definedName>
+    <definedName name="北京">OFFSET(Sheet14!$C$1,1,0,Sheet14!$E$1,1)</definedName>
     <definedName name="公司分部">OFFSET(选项卡!$B$1:$M$1,选项卡!$A$8,)</definedName>
     <definedName name="切片器_月份">#N/A</definedName>
     <definedName name="切片器_月份1">#N/A</definedName>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="154" r:id="rId11"/>
+    <pivotCache cacheId="158" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -461,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +497,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -556,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,6 +613,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -617,49 +632,13 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -718,6 +697,42 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -827,7 +842,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1168,6 +1182,34 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1201,6 +1243,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AE56-4719-801A-D14B0DC263E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1216,6 +1263,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AE56-4719-801A-D14B0DC263E6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1238,10 +1290,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.88</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,7 +1457,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1441,9 +1492,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1516,7 +1565,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1559,13 +1607,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,7 +2691,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -2661,9 +2709,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2680,23 +2727,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="63500">
+              <a:glow rad="139700">
                 <a:schemeClr val="accent1">
                   <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
+                  <a:alpha val="14000"/>
                 </a:schemeClr>
               </a:glow>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2706,13 +2753,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -2726,7 +2771,7 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2805,44 +2850,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-240E-4D2F-BBB3-78D91B512EFE}"/>
@@ -2850,7 +2896,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2858,11 +2904,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
+        <c:smooth val="0"/>
         <c:axId val="1615688656"/>
         <c:axId val="1615685744"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1615688656"/>
         <c:scaling>
@@ -2870,31 +2915,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2911,7 +2931,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -2939,31 +2959,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2980,7 +2975,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -3000,7 +2995,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -3033,7 +3028,386 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet14!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>北京</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[0]!月份</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!北京</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-734E-4492-B588-30E973E94EFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1615688656"/>
+        <c:axId val="1615685744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1615688656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615685744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1615685744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615688656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -3203,6 +3577,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5290,6 +5704,555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$A$8" fmlaRange="$A$2:$A$6" sel="5" val="0"/>
 </file>
@@ -5303,7 +6266,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$E$1" horiz="1" max="12" min="1" page="10" val="12"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$E$1" horiz="1" max="12" min="2" page="10" val="12"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5423,8 +6386,8 @@
           <a:chExt cx="7522233" cy="4275555"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="2" name="月份"/>
@@ -5441,7 +6404,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -5554,7 +6517,7 @@
                   <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>88%</a:t>
+                <a:t>87%</a:t>
               </a:fld>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600">
                 <a:solidFill>
@@ -5640,8 +6603,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="月份 1"/>
@@ -5658,7 +6621,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5845,7 +6808,7 @@
           <xdr:col>21</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>153865</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5889,15 +6852,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>398317</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>28573</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>181841</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5936,20 +6899,50 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>684608</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>684608</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2614</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>684609</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>231</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>181207</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>178592</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5985,21 +6978,23 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>181207</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>684609</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25090</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>684608</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6007,7 +7002,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6030,7 +7025,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Windows 用户" refreshedDate="43804.528399074072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Windows 用户" refreshedDate="43804.61661921296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F13" sheet="按键数据"/>
   </cacheSource>
@@ -6061,19 +7056,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="任务完成率" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.65" maxValue="0.89"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.66" maxValue="0.9"/>
     </cacheField>
     <cacheField name="总销量" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="288"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="203" maxValue="264"/>
     </cacheField>
     <cacheField name="小米" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="64" maxValue="96"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60" maxValue="99"/>
     </cacheField>
     <cacheField name="华为" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="62" maxValue="99"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60" maxValue="99"/>
     </cacheField>
     <cacheField name="苹果" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60" maxValue="99"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="62" maxValue="99"/>
     </cacheField>
     <cacheField name="字段1" numFmtId="0" formula=" 1-任务完成率" databaseField="0"/>
   </cacheFields>
@@ -6089,105 +7084,225 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
   <r>
     <x v="0"/>
-    <n v="0.74"/>
-    <n v="268"/>
-    <n v="94"/>
-    <n v="89"/>
-    <n v="85"/>
+    <n v="0.78"/>
+    <n v="260"/>
+    <n v="93"/>
+    <n v="97"/>
+    <n v="70"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0.71"/>
-    <n v="254"/>
-    <n v="91"/>
-    <n v="65"/>
-    <n v="98"/>
+    <n v="0.9"/>
+    <n v="242"/>
+    <n v="97"/>
+    <n v="64"/>
+    <n v="81"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="0.83"/>
-    <n v="213"/>
-    <n v="73"/>
-    <n v="65"/>
-    <n v="75"/>
+    <n v="0.71"/>
+    <n v="231"/>
+    <n v="77"/>
+    <n v="82"/>
+    <n v="72"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="0.89"/>
-    <n v="271"/>
-    <n v="90"/>
-    <n v="82"/>
+    <n v="0.75"/>
+    <n v="233"/>
+    <n v="99"/>
+    <n v="60"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.86"/>
+    <n v="257"/>
+    <n v="88"/>
+    <n v="91"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.83"/>
+    <n v="239"/>
+    <n v="60"/>
+    <n v="80"/>
     <n v="99"/>
   </r>
   <r>
-    <x v="4"/>
-    <n v="0.81"/>
-    <n v="200"/>
-    <n v="67"/>
-    <n v="62"/>
-    <n v="71"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="0.74"/>
-    <n v="254"/>
-    <n v="96"/>
-    <n v="98"/>
-    <n v="60"/>
-  </r>
-  <r>
     <x v="6"/>
-    <n v="0.88"/>
-    <n v="244"/>
-    <n v="74"/>
+    <n v="0.87"/>
+    <n v="209"/>
     <n v="76"/>
-    <n v="94"/>
+    <n v="61"/>
+    <n v="72"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="0.89"/>
-    <n v="262"/>
-    <n v="95"/>
-    <n v="71"/>
-    <n v="96"/>
+    <n v="0.66"/>
+    <n v="204"/>
+    <n v="81"/>
+    <n v="61"/>
+    <n v="62"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="0.65"/>
-    <n v="229"/>
-    <n v="64"/>
-    <n v="99"/>
+    <n v="0.77"/>
+    <n v="203"/>
+    <n v="66"/>
+    <n v="75"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.85"/>
+    <n v="227"/>
+    <n v="72"/>
+    <n v="89"/>
     <n v="66"/>
   </r>
   <r>
-    <x v="9"/>
-    <n v="0.89"/>
-    <n v="248"/>
-    <n v="78"/>
-    <n v="88"/>
-    <n v="82"/>
-  </r>
-  <r>
     <x v="10"/>
-    <n v="0.79"/>
-    <n v="288"/>
-    <n v="96"/>
-    <n v="93"/>
+    <n v="0.74"/>
+    <n v="264"/>
+    <n v="92"/>
     <n v="99"/>
+    <n v="73"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="0.73"/>
-    <n v="246"/>
-    <n v="67"/>
-    <n v="85"/>
-    <n v="94"/>
+    <n v="0.67"/>
+    <n v="254"/>
+    <n v="97"/>
+    <n v="79"/>
+    <n v="78"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="154" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="158" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="22">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:任务完成率" fld="1" baseField="0" baseItem="0" numFmtId="9"/>
+    <dataField name="求和项:字段1" fld="6" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="158" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A10:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -6246,22 +7361,22 @@
     <dataField name="求和项:苹果" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="3">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -6296,8 +7411,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="154" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D5:D6" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -6343,22 +7458,22 @@
     <dataField name="求和项:总销量" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="10">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -6371,110 +7486,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="154" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0">
-      <items count="22">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="求和项:任务完成率" fld="1" baseField="0" baseItem="0" numFmtId="9"/>
-    <dataField name="求和项:字段1" fld="6" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="154" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H2:I3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -7274,8 +8287,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="5" bestFit="1" customWidth="1"/>
@@ -7292,7 +8305,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="13">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7300,7 +8313,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="13">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -7308,7 +8321,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" s="14">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7321,7 +8334,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="14">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7329,7 +8342,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="14">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7337,7 +8350,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="14">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7402,23 +8415,23 @@
       </c>
       <c r="B2" s="8">
         <f ca="1">RANDBETWEEN(60,90)/100</f>
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">SUM(D2:F2)</f>
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(60,100)</f>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:F13" ca="1" si="0">RANDBETWEEN(60,100)</f>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -7434,29 +8447,29 @@
       </c>
       <c r="B3" s="8">
         <f t="shared" ref="B3:B13" ca="1" si="1">RANDBETWEEN(60,90)/100</f>
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C13" ca="1" si="2">SUM(D3:F3)</f>
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:F13" ca="1" si="3">RANDBETWEEN(60,100)</f>
-        <v>86</v>
+        <f t="shared" ref="D3:D13" ca="1" si="3">RANDBETWEEN(60,100)</f>
+        <v>88</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H3" s="10">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="I3" s="9">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J3"/>
     </row>
@@ -7466,23 +8479,23 @@
       </c>
       <c r="B4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -7494,23 +8507,23 @@
       </c>
       <c r="B5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -7522,23 +8535,23 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -7550,11 +8563,11 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.89</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -7562,11 +8575,11 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
@@ -7578,23 +8591,23 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -7606,23 +8619,23 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
@@ -7634,23 +8647,23 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -7662,23 +8675,23 @@
       </c>
       <c r="B11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
@@ -7690,23 +8703,23 @@
       </c>
       <c r="B12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -7718,23 +8731,23 @@
       </c>
       <c r="B13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -8306,162 +9319,186 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="7" customWidth="1"/>
     <col min="3" max="3" width="5.25" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="22">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(10,90)</f>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
-        <v>51</v>
+        <f t="shared" ref="C2:C13" ca="1" si="0">RANDBETWEEN(10,90)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="1">
-        <v>27</v>
+        <f t="shared" ref="B3:C13" ca="1" si="1">RANDBETWEEN(10,90)</f>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>66</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>55</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>78</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
-        <v>69</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
-        <v>23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>34</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
       </c>
       <c r="C9" s="1">
-        <v>73</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>72</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
       </c>
       <c r="C10" s="1">
-        <v>81</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>54</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
       </c>
       <c r="C11" s="1">
-        <v>69</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>72</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
       </c>
       <c r="C13" s="1">
-        <v>78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8478,15 +9515,15 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>0</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
